--- a/data/income_statement/3digits/total/683_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/683_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>683-Real estate activities on a fee or contract basis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>683-Real estate activities on a fee or contract basis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2338594.23336</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2695330.09086</v>
+        <v>2695441.44669</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3748476.72508</v>
+        <v>3749601.09593</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4173929.48712</v>
+        <v>4200789.78906</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5092034.362129999</v>
+        <v>5268722.81319</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5904092.28376</v>
+        <v>6067625.035799999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>6881740.72135</v>
+        <v>7606528.62028</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9704081.19568</v>
+        <v>9750752.01431</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13702131.84586</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11831018.05219</v>
+        <v>12149143.37128</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15382084.32662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15711434.18347</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>18953833.05</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2117008.653</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2402243.44913</v>
+        <v>2402354.80496</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3324963.30203</v>
+        <v>3326085.53803</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3837059.02556</v>
+        <v>3863312.60989</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4607699.236769999</v>
+        <v>4780434.167769999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5405204.97113</v>
+        <v>5552781.69096</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6331861.384610001</v>
+        <v>6980359.79783</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>8943778.363399999</v>
+        <v>8989187.776659999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12631779.29514</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11010668.82615</v>
+        <v>11327271.73033</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14412125.47785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14717808.98907</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>17897975.497</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>30323.39287</v>
@@ -1034,37 +950,42 @@
         <v>42132.16929999999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>84937.47229999999</v>
+        <v>84937.47230000001</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>70785.14343000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>118735.53975</v>
+        <v>119015.92204</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>81648.41686</v>
+        <v>81722.35752000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>115199.30209</v>
+        <v>120958.78369</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>137443.65213</v>
+        <v>137465.36288</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>291017.85913</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>162167.82755</v>
+        <v>162257.29955</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>274742.9617700001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>295059.47593</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>311020.262</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>191262.18749</v>
@@ -1073,37 +994,42 @@
         <v>250954.47243</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>338575.95075</v>
+        <v>338578.0856</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>266085.31813</v>
+        <v>266692.03574</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>365599.58561</v>
+        <v>369272.72338</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>417238.8957700001</v>
+        <v>433120.98732</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>434680.03465</v>
+        <v>505210.03876</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>622859.18015</v>
+        <v>624098.87477</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>779334.6915899999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>658181.3984900001</v>
+        <v>659614.3414</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>695215.887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>698565.7184700001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>744837.291</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>52790.92328</v>
@@ -1112,76 +1038,86 @@
         <v>47921.25973</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>48656.04833</v>
+        <v>48667.11083</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>63939.6763</v>
+        <v>63945.6763</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>54967.38322</v>
+        <v>59816.65277</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>85873.82433</v>
+        <v>89147.11885999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>98339.63688999999</v>
+        <v>114253.78373</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>171630.36592</v>
+        <v>172296.39313</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>379492.81317</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>313200.96253</v>
+        <v>313403.88965</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>440534.2307200001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>440721.44608</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>872335.008</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>23236.98295</v>
+        <v>23236.98294999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>22230.33358</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>25770.78493</v>
+        <v>25781.84743</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>26442.43311</v>
+        <v>26448.43311</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>30505.21758</v>
+        <v>30535.02345</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>48034.52666</v>
+        <v>51305.71356</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>58742.80806</v>
+        <v>64834.5212</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>116324.03918</v>
+        <v>116989.75986</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>199712.20761</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>226386.23924</v>
+        <v>226589.16636</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>322193.39386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>322353.12298</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>668034.284</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23280.94284</v>
@@ -1202,10 +1138,10 @@
         <v>25765.66342</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>30008.88446</v>
+        <v>36195.9695</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>29613.01126</v>
+        <v>29613.31779</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>147331.64262</v>
@@ -1214,16 +1150,21 @@
         <v>38335.03403</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>64986.85047999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>65014.33672</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>127304.913</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>6272.997490000001</v>
+        <v>6272.997490000002</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>10708.09751</v>
@@ -1235,13 +1176,13 @@
         <v>24379.75779</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6965.3941</v>
+        <v>11784.85778</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>12073.63425</v>
+        <v>12075.74188</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>9587.944369999999</v>
+        <v>13223.29303</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>25693.31548</v>
@@ -1253,91 +1194,106 @@
         <v>48479.68926000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>53353.98637999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>53353.98638</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>76995.811</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2285803.31008</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2647408.83113</v>
+        <v>2647520.18696</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3699820.67675</v>
+        <v>3700933.9851</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4109989.81082</v>
+        <v>4136844.11276</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5037066.97891</v>
+        <v>5208906.16042</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5818218.459430001</v>
+        <v>5978477.91694</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>6783401.084459999</v>
+        <v>7492274.836550001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9532450.82976</v>
+        <v>9578455.62118</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13322639.03269</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11517817.08966</v>
+        <v>11835739.48163</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14941550.0959</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15270712.73739</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>18081498.042</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1524324.01497</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1756467.93739</v>
+        <v>1756537.82016</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2404019.43238</v>
+        <v>2405082.92334</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2792670.39086</v>
+        <v>2818329.21343</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3287067.54384</v>
+        <v>3430736.76051</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3880011.46666</v>
+        <v>3912671.50339</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4530850.08136</v>
+        <v>4979308.29528</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6487117.84349</v>
+        <v>6518043.88984</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>8303675.012180001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7859590.63845</v>
+        <v>8165363.099470001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10138036.14877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10379974.435</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12557656.652</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>174002.63699</v>
@@ -1349,37 +1305,42 @@
         <v>120406.86592</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>243751.15174</v>
+        <v>268279.5871</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>167782.43051</v>
+        <v>225211.5056</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>175283.82279</v>
+        <v>175442.52225</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>203079.01451</v>
+        <v>230331.69063</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>681951.3351500001</v>
+        <v>682038.3660999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>743989.60413</v>
+        <v>743989.6041299999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>514910.73006</v>
+        <v>521096.34051</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>545346.34619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>572636.6584600001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>867442.505</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>319361.8389500001</v>
+        <v>319361.83895</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>447181.74733</v>
@@ -1388,76 +1349,86 @@
         <v>639637.08611</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>717357.45222</v>
+        <v>718032.5450100001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>797267.59173</v>
+        <v>879198.9093299999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>796002.89382</v>
+        <v>815735.0964800001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1037036.8409</v>
+        <v>1269601.75567</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1459253.91835</v>
+        <v>1470854.77338</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1828314.92513</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2061819.05308</v>
+        <v>2353349.9549</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2833466.02057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2983240.42845</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4012132.507</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1003634.20184</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1198895.39422</v>
+        <v>1198965.27699</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1604955.0693</v>
+        <v>1606018.56026</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1786465.42397</v>
+        <v>1786920.71839</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2273338.44048</v>
+        <v>2277647.26446</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2865862.07412</v>
+        <v>2878385.39836</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3201972.644479999</v>
+        <v>3388217.12451</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4212268.435969999</v>
+        <v>4231424.99634</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5548049.91019</v>
+        <v>5548049.910189999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5165137.93242</v>
+        <v>5173157.95433</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6646093.75827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6709811.73656</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7523175.904</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>27325.33719000001</v>
+        <v>27325.33719</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>20690.15661</v>
@@ -1472,106 +1443,121 @@
         <v>48679.08112</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>42862.67593</v>
+        <v>43108.4863</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>88761.58147</v>
+        <v>91157.72447</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>133644.15402</v>
+        <v>133725.75402</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>183320.57273</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>117722.92289</v>
+        <v>117758.84973</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>113130.02374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>114285.61153</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>154905.736</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>761479.2951100001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>890940.8937399999</v>
+        <v>890982.3668</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1295801.24437</v>
+        <v>1295851.06176</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1317319.41996</v>
+        <v>1318514.89933</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1749999.43507</v>
+        <v>1778169.39991</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1938206.99277</v>
+        <v>2065806.41355</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2252551.0031</v>
+        <v>2512966.54127</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3045332.98627</v>
+        <v>3060411.73134</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>5018964.02051</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3658226.45121</v>
+        <v>3670376.382160001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4803513.94713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4890738.302390001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5523841.39</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>648973.77249</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>741854.14168</v>
+        <v>741893.76388</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>986792.12615</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1093831.62976</v>
+        <v>1094127.90981</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1282249.0424</v>
+        <v>1316222.38863</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1422981.95319</v>
+        <v>1520698.99243</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1769310.52558</v>
+        <v>1980703.64985</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2313953.8086</v>
+        <v>2321730.65214</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>3043290.43333</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2878364.47391</v>
+        <v>2891689.16667</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3761550.65376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3827378.4812</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4159019.169</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>599.05923</v>
@@ -1595,7 +1581,7 @@
         <v>12163.82921</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2568.35643</v>
+        <v>2569.14893</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>17639.42723</v>
@@ -1604,13 +1590,18 @@
         <v>883.79137</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6291.8957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6302.3953</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6126.409</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>73449.45362</v>
@@ -1622,112 +1613,127 @@
         <v>118464.61441</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>145519.50764</v>
+        <v>145559.39482</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>173284.18948</v>
+        <v>189049.93966</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>188735.70719</v>
+        <v>236547.25013</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>198369.89165</v>
+        <v>277505.54582</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>356043.24422</v>
+        <v>356516.64468</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>493812.49819</v>
+        <v>493812.4981900001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>558131.1934199999</v>
+        <v>561332.3848100001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>860443.11976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>866834.24563</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1028639.296</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>574925.2596399999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>670495.6730299999</v>
+        <v>670535.29523</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>867758.17769</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>931484.6647700001</v>
+        <v>931741.0576400001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1107205.22695</v>
+        <v>1125412.823</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1233892.92111</v>
+        <v>1283798.41741</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1558776.80472</v>
+        <v>1691034.27482</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1955342.20795</v>
+        <v>1962644.85853</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2531838.50791</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2319349.48912</v>
+        <v>2329472.99049</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2894815.6383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2954241.84027</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3124253.464</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>112505.52262</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>149086.75206</v>
+        <v>149088.60292</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>309009.11822</v>
+        <v>309058.9356099999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>223487.7902</v>
+        <v>224386.98952</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>467750.39267</v>
+        <v>461947.01128</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>515225.03958</v>
+        <v>545107.4211199998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>483240.47752</v>
+        <v>532262.89142</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>731379.1776700001</v>
+        <v>738681.0792</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1975673.58718</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>779861.9772999999</v>
+        <v>778687.21549</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1041963.29337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1063359.82119</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1364822.221</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>295962.79921</v>
@@ -1736,37 +1742,42 @@
         <v>382312.94742</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>507973.3101300001</v>
+        <v>507973.31013</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>628098.35771</v>
+        <v>632097.7502799999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>673112.92097</v>
+        <v>677942.51793</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>932344.36601</v>
+        <v>977387.5467900001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1674629.24746</v>
+        <v>1754528.5706</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1853209.86295</v>
+        <v>1857249.04169</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2503102.34232</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3263969.75552</v>
+        <v>3276364.73998</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2560580.47777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2570770.43774</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3252413.586</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>6135.20263</v>
@@ -1787,7 +1798,7 @@
         <v>47090.91145</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>52364.96892</v>
+        <v>62671.44438999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>68089.3398</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>214860.50346</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>99244.048</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2526.50279</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2573.03971</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>38205.619</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>36610.03428</v>
@@ -1856,34 +1877,39 @@
         <v>59777.41229</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>76614.91432</v>
+        <v>77493.45398000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>80267.65638</v>
+        <v>82547.99795</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>127119.57831</v>
+        <v>132044.67787</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>179465.76111</v>
+        <v>183779.04946</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>219716.38369</v>
+        <v>219945.65735</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>306351.78798</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>309362.0047</v>
+        <v>309374.44325</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>398624.61185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>400263.83118</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>299976.206</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1594.04972</v>
@@ -1904,64 +1930,74 @@
         <v>905.9721200000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1320.944</v>
+        <v>1324.9016</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1445.63969</v>
+        <v>1445.97214</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>4071.76864</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5431.00937</v>
+        <v>5433.094680000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4705.021309999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4705.02131</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7640.107</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5401.82744</v>
+        <v>5401.827439999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>2792.99665</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>7797.770860000001</v>
+        <v>7797.77086</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>8412.08965</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>10892.93621</v>
+        <v>10924.69436</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>14881.77873</v>
+        <v>14956.60763</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11690.00733</v>
+        <v>12668.61448</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>19213.13782</v>
+        <v>19502.47878</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>81831.05147999999</v>
+        <v>81831.05148000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>17714.20454</v>
+        <v>17714.98688</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>49022.50773999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>49025.45631999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>26470.865</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2148.50615</v>
@@ -1973,34 +2009,39 @@
         <v>22273.99319</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>41706.23263000001</v>
+        <v>41711.67937000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>28942.12096</v>
+        <v>28951.07121</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>12612.35648</v>
+        <v>15831.92289</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>155928.50701</v>
+        <v>157209.00092</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>38827.00040999999</v>
+        <v>38827.00041</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>60661.38802</v>
+        <v>60661.38802000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>136183.14338</v>
+        <v>136189.03947</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>93428.64665000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>37580.556</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>155773.61814</v>
@@ -2012,40 +2053,45 @@
         <v>279754.82713</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>335870.05224</v>
+        <v>338887.03218</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>338993.7551</v>
+        <v>341169.9163400001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>537885.1511499999</v>
+        <v>565089.6367</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1036035.91725</v>
+        <v>1088354.51241</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1189011.68119</v>
+        <v>1191486.29398</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1550320.00407</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2147092.55516</v>
+        <v>2159879.12107</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1220141.73894</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1223432.96696</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2292634.701</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>147.77912</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>94.7427</v>
+        <v>94.74270000000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>166.2166</v>
@@ -2066,19 +2112,24 @@
         <v>73353.855</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>55858.71494000001</v>
+        <v>55858.71494</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>8593.351799999999</v>
+        <v>8593.3518</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>14378.71978</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1030.058</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>133.80933</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>70.33202</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>20.828</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>85491.46961</v>
@@ -2129,34 +2185,39 @@
         <v>128348.09016</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>142951.00653</v>
+        <v>143049.43276</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>139727.11599</v>
+        <v>140059.50174</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>189585.134</v>
+        <v>199204.33436</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>197382.57131</v>
+        <v>208080.47681</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>243145.16138</v>
+        <v>244190.78026</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>347887.45625</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>383843.2675</v>
+        <v>383430.48376</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>562775.3563099999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>568031.92035</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>449610.598</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>215128.72324</v>
@@ -2168,34 +2229,39 @@
         <v>614657.06797</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>395969.6908</v>
+        <v>397672.4768599999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>788305.3144299998</v>
+        <v>819547.38378</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>757637.3139099999</v>
+        <v>802798.3904</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1481139.89172</v>
+        <v>1600698.60601</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2104706.75724</v>
+        <v>2109287.17756</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3401442.61649</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3413332.58088</v>
+        <v>3425309.14644</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2198873.55562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2214606.77569</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3970372.081</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>4427.50216</v>
@@ -2204,7 +2270,7 @@
         <v>4453.645140000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2626.55502</v>
+        <v>2626.555019999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>4475.982569999999</v>
@@ -2213,28 +2279,33 @@
         <v>2376.01469</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7637.277849999999</v>
+        <v>8608.32762</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1757.35611</v>
+        <v>2478.2538</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7911.365160000001</v>
+        <v>7911.365159999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>6680.52135</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>10401.95636</v>
+        <v>10404.423</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>10764.87147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>21109.5973</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>26487.713</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>24565.21894</v>
@@ -2249,16 +2320,16 @@
         <v>31668.5963</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>25559.29766</v>
+        <v>25572.95122</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>33964.3193</v>
+        <v>34026.32012</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>31814.37099</v>
+        <v>34187.61436</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>57574.40126000001</v>
+        <v>57036.99063</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>126623.22858</v>
@@ -2267,13 +2338,18 @@
         <v>60731.11739</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>82464.29058999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>82464.29059</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>51732.461</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>363.00686</v>
@@ -2282,7 +2358,7 @@
         <v>531.50469</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>25128.58954000001</v>
+        <v>25128.58954</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>38022.54164</v>
@@ -2291,10 +2367,10 @@
         <v>37580.55743</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>8492.349189999999</v>
+        <v>12131.22607</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>25738.12901</v>
+        <v>27131.14272</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>27536.30674</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>64976.39109</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7305.365</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>141612.17362</v>
@@ -2324,34 +2405,39 @@
         <v>445480.28977</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>210729.19563</v>
+        <v>212400.77155</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>641651.0287</v>
+        <v>671537.4479299998</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>613124.95767</v>
+        <v>630849.2388399999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1253669.47397</v>
+        <v>1364963.46196</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1786612.67389</v>
+        <v>1791686.52395</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2946623.15488</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3090137.16162</v>
+        <v>3102110.94971</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1754700.39577</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1759224.2314</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3687418.557</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>157.40449</v>
@@ -2369,28 +2455,33 @@
         <v>1947.08608</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>4549.54448</v>
+        <v>5019.03014</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>49985.1234</v>
+        <v>50571.82866000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>78093.30657999999</v>
+        <v>78093.30658</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>55547.1153</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>9085.283649999999</v>
+        <v>9085.283650000001</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>11501.49545</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2050.842</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>30.91071</v>
@@ -2411,7 +2502,7 @@
         <v>11.05551</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>32.93410000000001</v>
+        <v>32.9341</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>18.2449</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>7.000000000000001e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.791</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>43972.50646</v>
@@ -2441,34 +2537,39 @@
         <v>74149.66661</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>110997.61081</v>
+        <v>111028.82095</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>79177.44386000001</v>
+        <v>80519.44042</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>89857.80991</v>
+        <v>112153.1921</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>118142.50414</v>
+        <v>121333.37041</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>146960.45871</v>
+        <v>147004.4396</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>234042.42942</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>204696.60787</v>
+        <v>204696.9187</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>274466.11118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>275330.7697899999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>195313.352</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>104887.83568</v>
@@ -2480,97 +2581,107 @@
         <v>192479.09118</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>168011.70643</v>
+        <v>168089.67809</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>279035.90949</v>
+        <v>284145.26384</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>343799.03254</v>
+        <v>364634.4180299999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>589369.97578</v>
+        <v>616159.25193</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>690253.19319</v>
+        <v>691710.8407599999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1336586.23202</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>987886.1011500001</v>
+        <v>988215.4327100002</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1287678.71408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1290149.37824</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1244132.278</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>74854.50264000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>82675.48787000001</v>
+        <v>82675.48786999998</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>120862.61931</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>123388.92237</v>
+        <v>123466.89403</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>184824.39258</v>
+        <v>189933.74693</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>224872.84624</v>
+        <v>243675.24952</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>300140.44036</v>
+        <v>324904.62308</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>396961.5357499999</v>
+        <v>397781.6798800001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>946559.62985</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>741875.19965</v>
+        <v>742204.53121</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>906789.5227200001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>908820.43663</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>789781.483</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>30033.33304</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>41742.09411999999</v>
+        <v>41742.09412</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>71616.47186999999</v>
+        <v>71616.47187000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>44622.78406</v>
+        <v>44622.78406000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>94211.51690999999</v>
+        <v>94211.51690999998</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>118926.1863</v>
+        <v>120959.16851</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>289229.53542</v>
+        <v>291254.62885</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>293291.65744</v>
+        <v>293929.16088</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>390026.60217</v>
@@ -2579,52 +2690,62 @@
         <v>246010.9015</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>380889.1913599999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>381328.94161</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>454350.795</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>88451.76290999999</v>
+        <v>88451.76291</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>136813.31227</v>
+        <v>136815.16313</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9846.269200000002</v>
+        <v>9896.086590000004</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>287604.75068</v>
+        <v>290722.58485</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>73522.08972</v>
+        <v>36196.88159</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>346133.05914</v>
+        <v>355062.15948</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>87359.85748000002</v>
+        <v>69933.60407999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-210370.90981</v>
+        <v>-205067.89743</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-259252.9190099999</v>
+        <v>-259252.91901</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-357386.94921</v>
+        <v>-358472.62368</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>115991.50144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>129374.105</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-597268.552</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>65058.98432000001</v>
@@ -2633,43 +2754,48 @@
         <v>36403.94472</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>45208.63869000001</v>
+        <v>45208.63869</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>110533.25435</v>
+        <v>110546.54017</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>87993.64905000001</v>
+        <v>92031.51933</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>184378.28802</v>
+        <v>185373.6209</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>246949.97596</v>
+        <v>254766.78995</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>213103.64714</v>
+        <v>213506.99485</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>384338.31872</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>231233.01896</v>
+        <v>231519.85622</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>750408.74993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>751733.1710600001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>481333.925</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>15684.93005</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>933.7793599999999</v>
+        <v>933.7793600000001</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1753.3759</v>
@@ -2678,13 +2804,13 @@
         <v>2095.84545</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3087.85545</v>
+        <v>3132.17012</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1143.70352</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>14587.00396</v>
+        <v>15231.55492</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>4375.4837</v>
@@ -2696,13 +2822,18 @@
         <v>8205.9262</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5209.69945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5215.03307</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5965.353</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>49374.05426999999</v>
@@ -2714,73 +2845,83 @@
         <v>43455.26279</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>108437.4089</v>
+        <v>108450.69472</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>84905.79359999999</v>
+        <v>88899.34921</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>183234.5845</v>
+        <v>184229.91738</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>232362.972</v>
+        <v>239535.23503</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>208728.16344</v>
+        <v>209131.51115</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>373800.05429</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>223027.09276</v>
+        <v>223313.93002</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>745199.05048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>746518.13799</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>475368.572</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37878.51076999999</v>
+        <v>37878.51077</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>39674.05326</v>
+        <v>39674.05326000001</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>242358.75798</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>89223.94096000001</v>
+        <v>89243.58077</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>125384.09525</v>
+        <v>126224.25356</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>278965.39543</v>
+        <v>282019.21851</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>201787.62495</v>
+        <v>211630.30218</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>363955.34944</v>
+        <v>364162.04601</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>742077.6151399999</v>
+        <v>742077.61514</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>458517.08565</v>
+        <v>459045.52425</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>331089.19394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>332973.44108</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>336609.3</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>699.2368</v>
@@ -2792,13 +2933,13 @@
         <v>7278.02186</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5809.19114</v>
+        <v>5809.191139999999</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>4880.26897</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7200.874720000001</v>
+        <v>7200.87472</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>6630.11463</v>
@@ -2813,13 +2954,18 @@
         <v>16482.37393</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1491.15975</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1495.98308</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1466.931</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>4291.639460000001</v>
@@ -2831,19 +2977,19 @@
         <v>4145.73692</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6531.565130000001</v>
+        <v>6531.565129999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4712.666550000001</v>
+        <v>4754.92447</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5090.12961</v>
+        <v>6586.09292</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6843.91569</v>
+        <v>8455.894630000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>33748.59071</v>
+        <v>33827.76811</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>13989.45374</v>
@@ -2852,13 +2998,18 @@
         <v>21681.30102</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>29040.57175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>29049.05783</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>35866.779</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>32887.63451</v>
@@ -2870,148 +3021,166 @@
         <v>230934.9992</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>76883.18468999999</v>
+        <v>76902.8245</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>115791.15973</v>
+        <v>116589.06012</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>266674.3911</v>
+        <v>268232.25087</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>188313.59463</v>
+        <v>196544.29292</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>314271.50893</v>
+        <v>314399.0281</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>714479.74389</v>
+        <v>714479.7438900002</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>420353.4107000001</v>
+        <v>420881.8493</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>300557.46244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>302428.40017</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>299275.59</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>115632.23646</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>133543.20373</v>
+        <v>133545.05459</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-187303.85009</v>
+        <v>-187254.0327</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>308914.06407</v>
+        <v>312025.54425</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>36131.64352</v>
+        <v>2004.147359999985</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>251545.95173</v>
+        <v>258416.56187</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>132522.20849</v>
+        <v>113070.09185</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-361222.61211</v>
+        <v>-355722.94859</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-616992.2154300001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-584671.0159</v>
+        <v>-585998.29171</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>535311.05743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>548133.83498</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-452543.927</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>44121.45592</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>43692.12995999999</v>
+        <v>43694.61008999999</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>64907.38643999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>73960.22814000001</v>
+        <v>73985.63369</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>89000.42791</v>
+        <v>90062.78208</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>104364.29663</v>
+        <v>105038.22761</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>122815.02642</v>
+        <v>128976.01335</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>168095.10732</v>
+        <v>168090.19036</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>264638.58664</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>200977.94861</v>
+        <v>202005.26498</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>234831.26004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>241657.83085</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>332203.041</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>71510.78053999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>89851.07377</v>
+        <v>89850.4445</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-252211.23653</v>
+        <v>-252161.41914</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>234953.83593</v>
+        <v>238039.91056</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-52868.78439</v>
+        <v>-88058.63472</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>147181.6551</v>
+        <v>153378.33426</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9707.182069999993</v>
+        <v>-15905.92150000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-529317.7194299999</v>
+        <v>-523813.13895</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-881630.8020700002</v>
+        <v>-881630.8020700001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-785648.96451</v>
+        <v>-788003.5566900001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>300479.79739</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>306476.00413</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-784746.968</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5566</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6175</v>
+        <v>6176</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6646</v>
+        <v>6647</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6820</v>
+        <v>6831</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7088</v>
+        <v>7111</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7376</v>
+        <v>7424</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8302</v>
+        <v>8440</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>8953</v>
+        <v>9031</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9956</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10406</v>
+        <v>10972</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10867</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11924</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12874</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>